--- a/data/trans_bre/P53_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>39,15%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 14,22</t>
+          <t>3,57; 14,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 13,05</t>
+          <t>1,38; 12,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 13,33</t>
+          <t>-0,45; 12,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 11,76</t>
+          <t>-2,53; 11,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 91,0</t>
+          <t>-1,78; 7,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 87,28</t>
+          <t>15,13; 91,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 101,21</t>
+          <t>6,59; 82,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 79,38</t>
+          <t>-4,18; 84,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,93; 79,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 87,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,21</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,34%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 18,61</t>
+          <t>7,12; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 13,49</t>
+          <t>1,21; 14,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 11,83</t>
+          <t>-3,54; 11,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 8,71</t>
+          <t>-6,74; 9,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 112,43</t>
+          <t>-0,01; 13,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 66,07</t>
+          <t>30,85; 111,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 58,54</t>
+          <t>4,17; 74,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 37,76</t>
+          <t>-11,72; 57,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 44,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 116,18</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,17</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>34,79%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,48%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 19,36</t>
+          <t>-6,47; 20,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 17,16</t>
+          <t>-9,63; 20,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 24,94</t>
+          <t>-8,73; 26,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 23,97</t>
+          <t>-6,99; 23,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 89,8</t>
+          <t>-11,93; 20,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 75,78</t>
+          <t>-17,29; 83,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 132,28</t>
+          <t>-25,83; 91,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 138,2</t>
+          <t>-22,59; 127,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 135,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-35,92; 132,99</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,19</t>
+          <t>6,62; 14,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 11,17</t>
+          <t>2,79; 10,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,76</t>
+          <t>1,26; 10,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,08</t>
+          <t>-0,91; 9,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,54; 76,95</t>
+          <t>-0,32; 8,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 57,39</t>
+          <t>27,8; 75,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 58,54</t>
+          <t>11,58; 57,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 46,89</t>
+          <t>4,33; 55,61</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 45,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 70,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P53_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>48,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>37,58%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>39,15%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>30,65%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>26,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.085061328711308</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.758668942615392</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.387556664543893</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.185705283304211</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.800608190221678</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4894956704779145</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3759315118445111</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4204575144103657</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.331918564375162</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2505838856538087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 14,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 12,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 12,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 11,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 7,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 91,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 82,41</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 84,47</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,93; 79,27</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,56; 87,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.574487856791582</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.147645855556002</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.1069262047366803</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.661046143798461</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.870816712403424</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.1513032976750152</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.05092844648274671</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.004303279127377773</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.07697466784356356</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1419545652980127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.25519129556349</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.2324595241986</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.73513972243847</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.02349139647606</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.660566583511322</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.9144083729671479</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.8083102201754214</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8960337695293251</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8177397210812053</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8484668792033683</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>67,73%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,13%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>20,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>44,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 18,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 14,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 11,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 9,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 13,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30,85; 111,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 74,63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-11,72; 57,14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; 44,59</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 116,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.20063869483693</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.665530396476029</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.5434320914537</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.285057622675229</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.02086625889312</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6773353091597162</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3670439094714447</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1870691253543534</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.04701388740324206</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3984608590370605</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,61</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>23,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>22,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34,79%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>38,59%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>26,48%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>7.120809925735537</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.297818341559953</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.103669546601416</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.844385784614746</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4915233797878897</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3084639290176183</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.04191521851653798</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1336011208766667</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2111811521043599</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03040448248749363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 20,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 20,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 26,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 23,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,93; 20,79</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,29; 83,52</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,83; 91,5</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,59; 127,26</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-20,54; 135,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-35,92; 132,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.9308169180772</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.45775902083075</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.27196089098058</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.402246911511964</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.5897540014567</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.118976657313644</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7721792634057759</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5551307352983001</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4252762280779164</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.092339937905918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>50,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,13%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,07%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19,37%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>31,39%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.297474118328373</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.725909095102661</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.598461496030136</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.55214294515156</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>6.482681460574091</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2329827922948398</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.197455607023539</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3288845223566306</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3834484201191952</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.2645100066825483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 14,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 10,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 10,66</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 9,11</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 8,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>27,8; 75,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>11,58; 57,67</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 55,61</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 45,32</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 70,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.473027066666195</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.91881445303672</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.230614908998906</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.561963008759521</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-12.12662491442231</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1729133904590815</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3111919678551159</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1972946298043576</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2026958603987718</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3714687194368413</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.27370370062189</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.62438279564282</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.91476267914908</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>23.89694123577825</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>20.61133036444393</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.8351527848725543</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.9266311550878729</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.202160352057419</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.287943789184363</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.331940275551962</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.33294845502688</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.217228602284361</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.314187253976888</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.542076641600926</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.225347319155262</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5041639985929072</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3345525947269398</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2916027300004622</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1961951210342686</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2925064846846777</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.618671081109692</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.844413246094305</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.513501236832198</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.237995794925428</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.5154200046544617</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2779656422234112</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1099577801590262</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.05647105892783574</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04758626132762623</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03353742380188391</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.09777154670002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.42022853500587</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.72299423070008</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.112868868878223</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.242655843200058</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7505547799788491</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5884665382474359</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5564453365570077</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4488438615624764</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6666599653149927</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
